--- a/biology/Botanique/Groseillier_des_Barbades/Groseillier_des_Barbades.xlsx
+++ b/biology/Botanique/Groseillier_des_Barbades/Groseillier_des_Barbades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pereskia aculeata
 Le groseillier des Barbades (Pereskia aculeata) est une espèce de cactus du genre Pereskia répandue dans presque toute l’Amérique latine, de la Floride au Paraguay, jusqu'à 1 000 m d'altitude.
@@ -514,19 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme un arbuste grimpant ou liane de 3 à 10 m de haut s’appuyant sur la végétation alentour puis retombant.
-Ecorce
-L'écorce est verte puis passe au marron tout en se craquelant.
-Feuilles
-Les feuilles sont de taille moyenne, très faiblement succulentes, lancéolées ou ovales, voire presque rondes (4,5–11 cm de long pour 1,5–5 cm de large), avec deux épines en crochet (caractéristique de l’espèce). Le pétiole en est court et la nervure centrale de la feuille est proéminente du côté envers.
-Aréoles
-Les aréoles portent de 1 à 3 épines recourbées en crochet, aplaties et plus ou moins fines.
-Lorsque les aréoles vieillissent elles peuvent comporter jusqu'à 25 épines droites de 10 à 35 mm de long.
-Fleurs
-Les fleurs sont d'une couleur blanchâtres à rose très pâle; elles sont de taille moyenne (2,5–5 cm de diamètre), terminales ou latérales. Elles se groupent en groupées en inflorescences de 70 et plus. Elles sont odorantes.
-Fruits
-Les fruits sont de petite taille (1,5 à 2,5 cm de diamètre), globuleux, charnus, épineux, de couleur jaune à orange. Ils sont comestibles. Les graines sont de forme lenticulaire et de couleur noire (5 mm).
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme un arbuste grimpant ou liane de 3 à 10 m de haut s’appuyant sur la végétation alentour puis retombant.
 </t>
         </is>
       </c>
@@ -552,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractère envahissant</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[1].
+          <t>Ecorce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce est verte puis passe au marron tout en se craquelant.
 </t>
         </is>
       </c>
@@ -583,75 +595,263 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont de taille moyenne, très faiblement succulentes, lancéolées ou ovales, voire presque rondes (4,5–11 cm de long pour 1,5–5 cm de large), avec deux épines en crochet (caractéristique de l’espèce). Le pétiole en est court et la nervure centrale de la feuille est proéminente du côté envers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aréoles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les aréoles portent de 1 à 3 épines recourbées en crochet, aplaties et plus ou moins fines.
+Lorsque les aréoles vieillissent elles peuvent comporter jusqu'à 25 épines droites de 10 à 35 mm de long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont d'une couleur blanchâtres à rose très pâle; elles sont de taille moyenne (2,5–5 cm de diamètre), terminales ou latérales. Elles se groupent en groupées en inflorescences de 70 et plus. Elles sont odorantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont de petite taille (1,5 à 2,5 cm de diamètre), globuleux, charnus, épineux, de couleur jaune à orange. Ils sont comestibles. Les graines sont de forme lenticulaire et de couleur noire (5 mm).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pereskia aculeata fut décrit pour la première fois en latin par le Père Charles Plumier, religieux de l'ordre des Minimes en 1703 dans son ouvrage "Nova Plantarum Americanarum Genera", page 35 [2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pereskia aculeata fut décrit pour la première fois en latin par le Père Charles Plumier, religieux de l'ordre des Minimes en 1703 dans son ouvrage "Nova Plantarum Americanarum Genera", page 35 .
 Les règles internationales de la taxonomie fixant comme point de départ de la reconnaissance des descriptions botaniques l’invention de la taxonomie binomiale par Linné, le nom de Plumier ne figure pas comme auteur initial.
 De ce fait, l'auteur officiel de Pereskia aculeata est Philip Miller qui en fera une description dans la 8e édition de son "The Gardeners Dictionary" en 1768.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Groseillier_des_Barbades</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Pereskia aculeata var. godseffiana, variété à feuilles pourpres. Probablement d'origine horticole.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Groseillier_des_Barbades</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cf: "The Plant List"[3] 23 avril 2012 :
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cf: "The Plant List" 23 avril 2012 :
 Cactus lucidus Salisb.
 Cactus pereskia L.
 Pereskia aculeata var. godseffiana (hort.) F.M. Knuth.
@@ -675,69 +875,144 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Groseillier_des_Barbades</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentaire
-Le groseillier des Barbades est nutritivement intéressant :
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le groseillier des Barbades est nutritivement intéressant :
 Ses feuilles constituent une source de protéines (elles en contiennent de 17 à 25 % dont 85 % assimilables), de vitamines A, B et C, calcium, fer, lysine, magnésium et phosphore. Elles peuvent être mangées en salade, soupe, légumes cuits, et entre dans la composition de l'angú.
-Ses fruits, sont comestibles et peuvent être préparés en conserve ou en confiture.
-Médicinale
-Pereskia aculeata a des propriétés anti-inflammatoires et pourrait également servir à soigner les brûlures.
-Arboricole
-Il est souvent utilisé comme porte-greffe[4].
+Ses fruits, sont comestibles et peuvent être préparés en conserve ou en confiture.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Médicinale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pereskia aculeata a des propriétés anti-inflammatoires et pourrait également servir à soigner les brûlures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Arboricole</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est souvent utilisé comme porte-greffe.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Groseillier_des_Barbades</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groseillier_des_Barbades</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Le nom de genre, Pereskia, honore l'astronome français Nicolas-Claude Fabri de Peiresc (1580-1637).
 aculeata, du latin aculeus, signifie aiguillon.</t>
